--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_19-03.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_19-03.xlsx
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاته حصيره </t>
   </si>
   <si>
     <t>شاش 10 سم</t>
@@ -2519,17 +2522,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2545,17 +2548,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2563,7 +2566,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2571,17 +2574,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2589,7 +2592,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2597,13 +2600,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
@@ -2615,7 +2618,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2623,17 +2626,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2655,45 +2658,71 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="6">
+        <v>69</v>
+      </c>
+      <c t="s" r="B72" s="7">
+        <v>101</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c t="s" r="H72" s="8">
+        <v>89</v>
+      </c>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="9">
+        <v>20</v>
+      </c>
+      <c r="M72" s="9"/>
+      <c r="N72" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="72" ht="26.25" customHeight="1">
-      <c r="K72" s="11">
-        <v>5548.1700000000001</v>
-      </c>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="12">
-        <v>101</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c t="s" r="F73" s="13">
+    <row r="73" ht="25.5" customHeight="1">
+      <c r="K73" s="11">
+        <v>5563.1700000000001</v>
+      </c>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+    </row>
+    <row r="74" ht="17.25" customHeight="1">
+      <c t="s" r="A74" s="12">
         <v>102</v>
       </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="14"/>
-      <c t="s" r="I73" s="15">
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c t="s" r="F74" s="13">
         <v>103</v>
       </c>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="14"/>
+      <c t="s" r="I74" s="15">
+        <v>104</v>
+      </c>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="215">
+  <mergeCells count="218">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2905,10 +2934,13 @@
     <mergeCell ref="B71:G71"/>
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="I73:N73"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="I74:N74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
